--- a/Modules/Module 2/MGEBUG1.7/MGEBUG1.7.2 - V.1.xlsx
+++ b/Modules/Module 2/MGEBUG1.7/MGEBUG1.7.2 - V.1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC25097-883F-4912-801E-0BAB07821990}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="4170" windowWidth="20580" windowHeight="3975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUG - CR" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Title</t>
   </si>
@@ -89,12 +90,27 @@
   </si>
   <si>
     <t>Unable to View all the Column of Sub Category Details</t>
+  </si>
+  <si>
+    <t>subCategoryControler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not modified could not find a problem </t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no changes </t>
+  </si>
+  <si>
+    <t>no problems fixed. I could not find a problem. All the Contains Sub CategoryId, Name, Description, Category ID are displayed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,9 +407,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -421,37 +434,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,6 +492,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -501,6 +508,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +547,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -569,7 +585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Mindtree_Logo (1).png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Mindtree_Logo (1).png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -607,7 +629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Title 1"/>
+        <xdr:cNvPr id="5" name="Title 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noGrp="1"/>
         </xdr:cNvSpPr>
@@ -734,6 +762,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -769,6 +814,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -944,10 +1006,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1000,15 +1064,15 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1016,12 +1080,12 @@
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,12 +1093,12 @@
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1042,12 +1106,12 @@
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1055,12 +1119,12 @@
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1074,13 +1138,13 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1094,21 +1158,31 @@
       <c r="D12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1117,7 +1191,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1126,7 +1200,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1135,38 +1209,38 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1180,79 +1254,83 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
+      <c r="C25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
+      <c r="C26" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1275,8 +1353,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
@@ -1293,6 +1369,8 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
